--- a/Data/Transitions/19251926Translation.xlsx
+++ b/Data/Transitions/19251926Translation.xlsx
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.7850698306760598}</t>
+    <t>{81.0: 0.7830859423724585}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -283,7 +283,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 1.0, 733.0: 0.0815552394499763}</t>
+    <t>{147.0: 1.0, 733.0: 0.07612303606992697}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -331,7 +331,7 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9428147659854977}</t>
+    <t>{172.0: 0.9421280853902602}</t>
   </si>
   <si>
     <t>{173.0: 1.0}</t>
@@ -361,10 +361,10 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9900765828928918}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.003990939488728293}</t>
+    <t>{182.0: 0.9900303424360641}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.004009536194191591}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
@@ -418,7 +418,7 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 1.0, 409.0: 0.11470472698703679}</t>
+    <t>{218.0: 1.0, 409.0: 0.11496062992125984}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -439,7 +439,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.6596534653465347}</t>
+    <t>{227.0: 0.6191135734072022}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -481,6 +481,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -589,7 +592,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 1.0, 182.0: 0.005932477618379894}</t>
+    <t>{282.0: 1.0, 182.0: 0.0059601213697442566}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -658,7 +661,7 @@
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
+    <t>{305.0: 0.7921536463673023}</t>
   </si>
   <si>
     <t>{306.0: 1.0}</t>
@@ -700,9 +703,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -739,7 +739,7 @@
     <t>{408.0: 1.0}</t>
   </si>
   <si>
-    <t>{409.0: 0.8852952730129632}</t>
+    <t>{409.0: 0.8850393700787401}</t>
   </si>
   <si>
     <t>{410.0: 1.0}</t>
@@ -898,7 +898,7 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.7682466786944399}</t>
+    <t>{497.0: 0.7672285981000494}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -928,7 +928,7 @@
     <t>{506.0: 1.0}</t>
   </si>
   <si>
-    <t>{507.0: 0.7996186117467582}</t>
+    <t>{507.0: 0.7984965866380302}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -1048,7 +1048,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.2003813882532418}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.20150341336196978}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1123,10 +1123,10 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.006883365200764819, 698.0: 0.0026191723415400735, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.9931166347992352}</t>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.006551410373066424, 698.0: 0.0026393929396238865, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.9934485896269336}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1216,7 +1216,7 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.8684354485776805}</t>
+    <t>{686.0: 0.8689016080675933}</t>
   </si>
   <si>
     <t>{687.0: 1.0}</t>
@@ -1252,7 +1252,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9973808276584599}</t>
+    <t>{698.0: 0.9973606070603761}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1291,7 +1291,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 0.9184447605500237}</t>
+    <t>{733.0: 0.923876963930073}</t>
   </si>
   <si>
     <t>{734.0: 1.0}</t>
@@ -1459,7 +1459,7 @@
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
+    <t>{832.0: 0.8786591123701605}</t>
   </si>
   <si>
     <t>{833.0: 1.0}</t>
@@ -1495,7 +1495,7 @@
     <t>{843.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.34034653465346537, 686.0: 0.02735229759299781}</t>
+    <t>{227.0: 0.3808864265927978, 686.0: 0.02725538293813028}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1636,7 +1636,7 @@
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.10421225382932166}</t>
+    <t>{921.0: 1.0, 686.0: 0.10384300899427637}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
@@ -1684,7 +1684,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{938.0: 0.7590095611669527}</t>
+    <t>{938.0: 0.750950088674943}</t>
   </si>
   <si>
     <t>{939.0: 1.0}</t>
@@ -1741,7 +1741,7 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.23175332130556012, 938.0: 0.24099043883304733}</t>
+    <t>{497.0: 0.23277140189995058, 938.0: 0.249049911325057}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -1765,7 +1765,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{183.0: 0.9855750487329434, 182.0: 0.01442495126705653}</t>
+    <t>{183.0: 0.9858346094946401, 182.0: 0.014165390505359877}</t>
   </si>
   <si>
     <t>{218.0: 0.7899784224406617, 409.0: 0.21002157755933828}</t>
@@ -1774,7 +1774,7 @@
     <t>{227.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9799416484318016, 182.0: 0.020058351568198397}</t>
+    <t>{282.0: 0.9802584350323044, 182.0: 0.01974156496769562}</t>
   </si>
   <si>
     <t>{305.0: 1.0}</t>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4264,29 +4264,29 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>586</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>586</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4517,29 +4517,29 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>587</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>587</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
